--- a/curation/draft/package12/R12_BC_QRS.xlsx
+++ b/curation/draft/package12/R12_BC_QRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22FC946-8E22-4926-9F70-2B3EC9CDA090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9453044D-5BE3-4323-9973-68C5B760FAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_QRS" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>package_date</t>
   </si>
@@ -85,9 +85,6 @@
     <t>R12</t>
   </si>
   <si>
-    <t>Research or Clinical Assessment Tools; Clinical Classification Instruments; CDISC QRS Instruments Questions; QRS</t>
-  </si>
-  <si>
     <t>C118969</t>
   </si>
   <si>
@@ -101,6 +98,21 @@
   </si>
   <si>
     <t>Research or Clinical Assessmnet Tools; QRS</t>
+  </si>
+  <si>
+    <t>C91102</t>
+  </si>
+  <si>
+    <t>Clinical or Research Assessment Question</t>
+  </si>
+  <si>
+    <t>A question pertaining to a clinical or research assessment.</t>
+  </si>
+  <si>
+    <t>Clinical or Research Assessment Questions; QRS</t>
+  </si>
+  <si>
+    <t>Research or Clinical Assessment Tools; Clinical Classification Instruments; Clinical or Research Assessment Questions; CDISC QRS Instruments Questions; QRS</t>
   </si>
 </sst>
 </file>
@@ -176,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -216,19 +228,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB0B7BB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB0B7BB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB0B7BB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFC1C1C1"/>
       </left>
       <right/>
@@ -240,31 +239,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB0B7BB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB0B7BB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB0B7BB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB0B7BB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB0B7BB"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -278,6 +295,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -413,31 +439,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB54A93-47D7-4CFB-86AD-685CC795F952}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
-    <col min="11" max="11" width="15.7109375" style="7" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="7"/>
-    <col min="14" max="14" width="17.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="11.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="15.7109375" style="5" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="5"/>
+    <col min="14" max="14" width="17.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
@@ -474,101 +500,162 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="6"/>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="6"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O5" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C211913" xr:uid="{67937955-08A7-4AF2-8B34-C47CA65B1979}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{2FD084B7-B3F7-4A00-AF0D-66D1AB39A1A1}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C211913" xr:uid="{67937955-08A7-4AF2-8B34-C47CA65B1979}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{2FD084B7-B3F7-4A00-AF0D-66D1AB39A1A1}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{0055A05C-0445-45CB-A188-930CB47DB674}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{31A9F8C5-AAD5-485B-A20F-6C35E6A5DDE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="115dd23f2b72febc1d2fc1b60a8090db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43aaa9d63816c92389865776c2b79fa6" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -825,28 +912,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{559C6106-EF6C-4377-B9A5-06A3DB807CEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A71F282A-C2BD-4961-A44E-C98752E45E1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9CDBB8C-5821-4E2B-AD03-4C5641024F2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -863,23 +948,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A71F282A-C2BD-4961-A44E-C98752E45E1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{559C6106-EF6C-4377-B9A5-06A3DB807CEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>